--- a/commas_to_wkbk/adding_commas.xlsx
+++ b/commas_to_wkbk/adding_commas.xlsx
@@ -1,37 +1,637 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan.donohue\Desktop\Projects\python\commas_to_wkbk\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="randomnums" sheetId="1" r:id="rId1"/>
+    <sheet name="randomnums" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="randomnums_with_commas" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="randomnums_with_commas1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
+  <si>
+    <t xml:space="preserve">2934324, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934325, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934326, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934327, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934328, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934329, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934330, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934331, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934332, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934333, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934334, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934335, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934336, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934337, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934338, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934339, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934340, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934341, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934342, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934343, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934344, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934345, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934346, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934347, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934348, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934349, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934350, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934351, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934352, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934353, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934354, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934355, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934356, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934357, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934358, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934359, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934360, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934361, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934362, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934363, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934364, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934365, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934366, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934367, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934368, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934369, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934370, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934371, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934372, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934373, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934374, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934375, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934376, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934377, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934378, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934379, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934380, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934381, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934382, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934383, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934384, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934385, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934386, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934387, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934388, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934389, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934390, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934391, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934392, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934393, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934394, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934395, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934396, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934397, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934398, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934399, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934400, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934401, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934402, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934403, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934404, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934405, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934406, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934407, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934408, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934409, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934410, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934411, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934412, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934413, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934414, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934415, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934416, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934417, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934418, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934419, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934420, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934421, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934422, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934423, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934424, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934425, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934426, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934427, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934428, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934429, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934430, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934431, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934432, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934433, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934434, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934435, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934436, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934437, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934438, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934439, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934440, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934441, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934442, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934443, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934444, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934445, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934446, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934447, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934448, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934449, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934450, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934451, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934452, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934453, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934454, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934455, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934456, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934457, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934458, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934459, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934460, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934461, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934462, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934463, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934464, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934465, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934466, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934467, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934468, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934469, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934470, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934471, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934472, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934473, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934474, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934475, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934476, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934477, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934478, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934479, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934480, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934481, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934482, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934483, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934484, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934485, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934486, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934487, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934488, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934489, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934490, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934491, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934492, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934493, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934494, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934495, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934496, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934497, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934498, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934499, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934500, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934501, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934502, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934503, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934504, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934505, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934506, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934507, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934508, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934509, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934510, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934511, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934512, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934513, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934514, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934515, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934516, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934517, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934518, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934519, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934520, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934521, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934522, </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,27 +647,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -333,1139 +924,3171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A241"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
       <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="n">
         <v>2934324</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="n">
         <v>2934325</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="n">
         <v>2934326</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="n">
         <v>2934327</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="n">
         <v>2934328</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="n">
         <v>2934329</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="n">
         <v>2934330</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="n">
         <v>2934331</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="n">
         <v>2934332</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="n">
         <v>2934333</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="n">
         <v>2934334</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="n">
         <v>2934335</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="n">
         <v>2934336</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="n">
         <v>2934337</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="n">
         <v>2934338</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="n">
         <v>2934339</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="n">
         <v>2934340</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="n">
         <v>2934341</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="n">
         <v>2934342</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="n">
         <v>2934343</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="n">
         <v>2934344</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="n">
         <v>2934345</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="n">
         <v>2934346</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="n">
         <v>2934347</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="n">
         <v>2934348</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="n">
         <v>2934349</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="n">
         <v>2934350</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="n">
         <v>2934351</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="n">
         <v>2934352</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="n">
         <v>2934353</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="n">
         <v>2934354</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="n">
         <v>2934355</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="n">
         <v>2934356</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="n">
         <v>2934357</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="n">
         <v>2934358</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="n">
         <v>2934359</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="n">
         <v>2934360</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="n">
         <v>2934361</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="n">
         <v>2934362</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="n">
         <v>2934363</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="n">
         <v>2934364</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="n">
         <v>2934365</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="n">
         <v>2934366</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="n">
         <v>2934367</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="n">
         <v>2934368</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="n">
         <v>2934369</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="n">
         <v>2934370</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="n">
         <v>2934371</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="n">
         <v>2934372</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="n">
         <v>2934373</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="n">
         <v>2934374</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="n">
         <v>2934375</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="n">
         <v>2934376</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="n">
         <v>2934377</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="n">
         <v>2934378</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="n">
         <v>2934379</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="n">
         <v>2934380</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="n">
         <v>2934381</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="n">
         <v>2934382</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="n">
         <v>2934383</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="n">
         <v>2934384</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="n">
         <v>2934385</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="n">
         <v>2934386</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="n">
         <v>2934387</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="n">
         <v>2934388</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="n">
         <v>2934389</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="n">
         <v>2934390</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="n">
         <v>2934391</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="n">
         <v>2934392</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="n">
         <v>2934393</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="n">
         <v>2934394</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="n">
         <v>2934395</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="n">
         <v>2934396</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="n">
         <v>2934397</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="n">
         <v>2934398</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="n">
         <v>2934399</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="n">
         <v>2934400</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="n">
         <v>2934401</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="n">
         <v>2934402</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="n">
         <v>2934403</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="n">
         <v>2934404</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="n">
         <v>2934405</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="n">
         <v>2934406</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="n">
         <v>2934407</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="n">
         <v>2934408</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="n">
         <v>2934409</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="n">
         <v>2934410</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="n">
         <v>2934411</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="n">
         <v>2934412</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="n">
         <v>2934413</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="n">
         <v>2934414</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="n">
         <v>2934415</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="n">
         <v>2934416</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="n">
         <v>2934417</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="n">
         <v>2934418</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="n">
         <v>2934419</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="n">
         <v>2934420</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="n">
         <v>2934421</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="n">
         <v>2934422</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="n">
         <v>2934423</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="n">
         <v>2934424</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="n">
         <v>2934425</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+    <row r="103" spans="1:1">
+      <c r="A103" s="1" t="n">
         <v>2934426</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="n">
         <v>2934427</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="n">
         <v>2934428</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="n">
         <v>2934429</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="n">
         <v>2934430</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="n">
         <v>2934431</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="n">
         <v>2934432</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="n">
         <v>2934433</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="n">
         <v>2934434</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
+    <row r="112" spans="1:1">
+      <c r="A112" s="1" t="n">
         <v>2934435</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="n">
         <v>2934436</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
+    <row r="114" spans="1:1">
+      <c r="A114" s="1" t="n">
         <v>2934437</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
+    <row r="115" spans="1:1">
+      <c r="A115" s="1" t="n">
         <v>2934438</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="n">
         <v>2934439</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
+    <row r="117" spans="1:1">
+      <c r="A117" s="1" t="n">
         <v>2934440</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
+    <row r="118" spans="1:1">
+      <c r="A118" s="1" t="n">
         <v>2934441</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
+    <row r="119" spans="1:1">
+      <c r="A119" s="1" t="n">
         <v>2934442</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
+    <row r="120" spans="1:1">
+      <c r="A120" s="1" t="n">
         <v>2934443</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
+    <row r="121" spans="1:1">
+      <c r="A121" s="1" t="n">
         <v>2934444</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
+    <row r="122" spans="1:1">
+      <c r="A122" s="1" t="n">
         <v>2934445</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
+    <row r="123" spans="1:1">
+      <c r="A123" s="1" t="n">
         <v>2934446</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
+    <row r="124" spans="1:1">
+      <c r="A124" s="1" t="n">
         <v>2934447</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
+    <row r="125" spans="1:1">
+      <c r="A125" s="1" t="n">
         <v>2934448</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
+    <row r="126" spans="1:1">
+      <c r="A126" s="1" t="n">
         <v>2934449</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
+    <row r="127" spans="1:1">
+      <c r="A127" s="1" t="n">
         <v>2934450</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
+    <row r="128" spans="1:1">
+      <c r="A128" s="1" t="n">
         <v>2934451</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
+    <row r="129" spans="1:1">
+      <c r="A129" s="1" t="n">
         <v>2934452</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
+    <row r="130" spans="1:1">
+      <c r="A130" s="1" t="n">
         <v>2934453</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="n">
         <v>2934454</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="n">
         <v>2934455</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
+    <row r="133" spans="1:1">
+      <c r="A133" s="1" t="n">
         <v>2934456</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
+    <row r="134" spans="1:1">
+      <c r="A134" s="1" t="n">
         <v>2934457</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
+    <row r="135" spans="1:1">
+      <c r="A135" s="1" t="n">
         <v>2934458</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
+    <row r="136" spans="1:1">
+      <c r="A136" s="1" t="n">
         <v>2934459</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="n">
         <v>2934460</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
+    <row r="138" spans="1:1">
+      <c r="A138" s="1" t="n">
         <v>2934461</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="n">
         <v>2934462</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
+    <row r="140" spans="1:1">
+      <c r="A140" s="1" t="n">
         <v>2934463</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
+    <row r="141" spans="1:1">
+      <c r="A141" s="1" t="n">
         <v>2934464</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
+    <row r="142" spans="1:1">
+      <c r="A142" s="1" t="n">
         <v>2934465</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="n">
         <v>2934466</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
+    <row r="144" spans="1:1">
+      <c r="A144" s="1" t="n">
         <v>2934467</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="n">
         <v>2934468</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
+    <row r="146" spans="1:1">
+      <c r="A146" s="1" t="n">
         <v>2934469</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="n">
         <v>2934470</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="n">
         <v>2934471</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
+    <row r="149" spans="1:1">
+      <c r="A149" s="1" t="n">
         <v>2934472</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
+    <row r="150" spans="1:1">
+      <c r="A150" s="1" t="n">
         <v>2934473</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
+    <row r="151" spans="1:1">
+      <c r="A151" s="1" t="n">
         <v>2934474</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
+    <row r="152" spans="1:1">
+      <c r="A152" s="1" t="n">
         <v>2934475</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="n">
         <v>2934476</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
+    <row r="154" spans="1:1">
+      <c r="A154" s="1" t="n">
         <v>2934477</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
+    <row r="155" spans="1:1">
+      <c r="A155" s="1" t="n">
         <v>2934478</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
+    <row r="156" spans="1:1">
+      <c r="A156" s="1" t="n">
         <v>2934479</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="n">
         <v>2934480</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
+    <row r="158" spans="1:1">
+      <c r="A158" s="1" t="n">
         <v>2934481</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
+    <row r="159" spans="1:1">
+      <c r="A159" s="1" t="n">
         <v>2934482</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
+    <row r="160" spans="1:1">
+      <c r="A160" s="1" t="n">
         <v>2934483</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
+    <row r="161" spans="1:1">
+      <c r="A161" s="1" t="n">
         <v>2934484</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
+    <row r="162" spans="1:1">
+      <c r="A162" s="1" t="n">
         <v>2934485</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
+    <row r="163" spans="1:1">
+      <c r="A163" s="1" t="n">
         <v>2934486</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="1">
+    <row r="164" spans="1:1">
+      <c r="A164" s="1" t="n">
         <v>2934487</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
+    <row r="165" spans="1:1">
+      <c r="A165" s="1" t="n">
         <v>2934488</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
+    <row r="166" spans="1:1">
+      <c r="A166" s="1" t="n">
         <v>2934489</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="n">
         <v>2934490</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
+    <row r="168" spans="1:1">
+      <c r="A168" s="1" t="n">
         <v>2934491</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
+    <row r="169" spans="1:1">
+      <c r="A169" s="1" t="n">
         <v>2934492</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="1">
+    <row r="170" spans="1:1">
+      <c r="A170" s="1" t="n">
         <v>2934493</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="1">
+    <row r="171" spans="1:1">
+      <c r="A171" s="1" t="n">
         <v>2934494</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
+    <row r="172" spans="1:1">
+      <c r="A172" s="1" t="n">
         <v>2934495</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
+    <row r="173" spans="1:1">
+      <c r="A173" s="1" t="n">
         <v>2934496</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
+    <row r="174" spans="1:1">
+      <c r="A174" s="1" t="n">
         <v>2934497</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
+    <row r="175" spans="1:1">
+      <c r="A175" s="1" t="n">
         <v>2934498</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
+    <row r="176" spans="1:1">
+      <c r="A176" s="1" t="n">
         <v>2934499</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
+    <row r="177" spans="1:1">
+      <c r="A177" s="1" t="n">
         <v>2934500</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
+    <row r="178" spans="1:1">
+      <c r="A178" s="1" t="n">
         <v>2934501</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
+    <row r="179" spans="1:1">
+      <c r="A179" s="1" t="n">
         <v>2934502</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
+    <row r="180" spans="1:1">
+      <c r="A180" s="1" t="n">
         <v>2934503</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
+    <row r="181" spans="1:1">
+      <c r="A181" s="1" t="n">
         <v>2934504</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
+    <row r="182" spans="1:1">
+      <c r="A182" s="1" t="n">
         <v>2934505</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
+    <row r="183" spans="1:1">
+      <c r="A183" s="1" t="n">
         <v>2934506</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
+    <row r="184" spans="1:1">
+      <c r="A184" s="1" t="n">
         <v>2934507</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="1">
+    <row r="185" spans="1:1">
+      <c r="A185" s="1" t="n">
         <v>2934508</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
+    <row r="186" spans="1:1">
+      <c r="A186" s="1" t="n">
         <v>2934509</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
+    <row r="187" spans="1:1">
+      <c r="A187" s="1" t="n">
         <v>2934510</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
+    <row r="188" spans="1:1">
+      <c r="A188" s="1" t="n">
         <v>2934511</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
+    <row r="189" spans="1:1">
+      <c r="A189" s="1" t="n">
         <v>2934512</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
+    <row r="190" spans="1:1">
+      <c r="A190" s="1" t="n">
         <v>2934513</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
+    <row r="191" spans="1:1">
+      <c r="A191" s="1" t="n">
         <v>2934514</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="1">
+    <row r="192" spans="1:1">
+      <c r="A192" s="1" t="n">
         <v>2934515</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="1">
+    <row r="193" spans="1:1">
+      <c r="A193" s="1" t="n">
         <v>2934516</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="1">
+    <row r="194" spans="1:1">
+      <c r="A194" s="1" t="n">
         <v>2934517</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="1">
+    <row r="195" spans="1:1">
+      <c r="A195" s="1" t="n">
         <v>2934518</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="1">
+    <row r="196" spans="1:1">
+      <c r="A196" s="1" t="n">
         <v>2934519</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="1">
+    <row r="197" spans="1:1">
+      <c r="A197" s="1" t="n">
         <v>2934520</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="1">
+    <row r="198" spans="1:1">
+      <c r="A198" s="1" t="n">
         <v>2934521</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="1">
+    <row r="199" spans="1:1">
+      <c r="A199" s="1" t="n">
         <v>2934522</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="1">
+    <row r="200" spans="1:1">
+      <c r="A200" s="1" t="n">
         <v>2934523</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="1"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="1"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="1"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="1"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="1"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="1"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="1"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="1"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="1"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="1"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="1"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="1"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="1"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" s="1"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="1"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="1"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" s="1"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" s="1"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="1"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" s="1"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" s="1"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" s="1"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="1"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="1"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="1"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="1"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="1"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="1"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="1"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="1"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="1"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="1"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" s="1"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="1"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="1"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" s="1"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" s="1"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" s="1"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" s="1"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" s="1"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" s="1"/>
+    <row r="201" spans="1:1">
+      <c r="A201" s="1" t="n"/>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="1" t="n"/>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="1" t="n"/>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="1" t="n"/>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1" t="n"/>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="1" t="n"/>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="1" t="n"/>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="1" t="n"/>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="1" t="n"/>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="1" t="n"/>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="1" t="n"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="1" t="n"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="1" t="n"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="1" t="n"/>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="1" t="n"/>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="1" t="n"/>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="1" t="n"/>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="1" t="n"/>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="1" t="n"/>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="1" t="n"/>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="1" t="n"/>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="1" t="n"/>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="1" t="n"/>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="1" t="n"/>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="1" t="n"/>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="1" t="n"/>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="1" t="n"/>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="1" t="n"/>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="1" t="n"/>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="1" t="n"/>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="1" t="n"/>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="1" t="n"/>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="1" t="n"/>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="1" t="n"/>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="1" t="n"/>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="1" t="n"/>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="1" t="n"/>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="1" t="n"/>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="1" t="n"/>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="1" t="n"/>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A199"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A199"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>